--- a/lib/data/archivo.xlsx
+++ b/lib/data/archivo.xlsx
@@ -1,65 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desarrollo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\correosMasivos\lib\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18720" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>numero</t>
+    <t>jauregui.crespo@gmail.com</t>
   </si>
   <si>
-    <t>nombre</t>
+    <t>jauregui.crespo@sgtel.pe</t>
   </si>
   <si>
-    <t>apellido_p</t>
+    <t>jauregui@masterhelp.net</t>
   </si>
   <si>
-    <t>apellido_m</t>
-  </si>
-  <si>
-    <t>foto_url</t>
-  </si>
-  <si>
-    <t>tipo_documento</t>
-  </si>
-  <si>
-    <t>numero_documento</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN</t>
-  </si>
-  <si>
-    <t>id_servicio</t>
-  </si>
-  <si>
-    <t>categoria</t>
+    <t>rebeca.alvarez@sgtel.pe</t>
   </si>
 </sst>
 </file>
@@ -72,6 +43,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -95,14 +67,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,39 +99,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,203 +210,616 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2">
+        <v>6780000</v>
+      </c>
+      <c r="D1">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2">
+        <v>6546000</v>
+      </c>
+      <c r="D2">
+        <v>2010</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" s="2">
+        <v>6472000</v>
+      </c>
+      <c r="D3">
+        <v>2010</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
+      <c r="C4" s="2">
+        <v>6460000</v>
+      </c>
+      <c r="D4">
+        <v>2010</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E125" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>